--- a/tables/Appendix Table S5_+Spores_TN_SEM_output.xlsx
+++ b/tables/Appendix Table S5_+Spores_TN_SEM_output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/Rachel Bag Experiment SEM/Data and Code/nutrient-bag-expt/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/Manuscripts/Parasitism alters effects of mixing and nutrients - Oecologia/Data and Code/nutrient-bag-expt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{0CEE49A6-75A2-4758-AC88-F098BB3500D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A9A0AF1-1DF5-4C60-8A51-930E7AE676B2}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{0CEE49A6-75A2-4758-AC88-F098BB3500D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64122F12-2D8F-44FD-B2C8-A1D9AC0629DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A333C88C-4B59-4FCA-AC58-93C6857E7BAF}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" xr2:uid="{A333C88C-4B59-4FCA-AC58-93C6857E7BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,25 +574,25 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:12" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -654,7 +654,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
@@ -698,7 +698,9 @@
       <c r="F6" s="8">
         <v>6.2842243623436296E-3</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>79</v>
+      </c>
       <c r="H6" s="8">
         <v>-1.62195983393488</v>
       </c>
@@ -708,7 +710,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -738,7 +740,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
@@ -766,7 +768,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -798,7 +800,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
@@ -826,29 +828,29 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="18"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
